--- a/Hanbell-RPT/web/rpt/库存异动单模板.xlsx
+++ b/Hanbell-RPT/web/rpt/库存异动单模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>交易日期</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>大类名称</t>
+  </si>
+  <si>
+    <t>归类</t>
   </si>
   <si>
     <t>库号</t>
@@ -112,6 +115,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -179,13 +189,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -240,6 +243,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -247,14 +258,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -271,6 +274,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -289,79 +370,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,7 +400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,7 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,24 +436,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -440,12 +449,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,148 +585,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1086,10 +1089,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:X1"/>
+  <dimension ref="B1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1105,19 +1108,19 @@
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="28.5714285714286" customWidth="1"/>
     <col min="13" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="6.42857142857143" customWidth="1"/>
-    <col min="16" max="16" width="12.2857142857143" customWidth="1"/>
-    <col min="18" max="18" width="5.14285714285714" customWidth="1"/>
-    <col min="19" max="19" width="9" customWidth="1"/>
-    <col min="20" max="20" width="8.57142857142857" customWidth="1"/>
-    <col min="21" max="21" width="6.85714285714286" customWidth="1"/>
-    <col min="22" max="22" width="60.5714285714286" customWidth="1"/>
-    <col min="23" max="23" width="6.85714285714286" customWidth="1"/>
-    <col min="24" max="24" width="8.57142857142857" customWidth="1"/>
+    <col min="14" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="6.42857142857143" customWidth="1"/>
+    <col min="17" max="17" width="12.2857142857143" customWidth="1"/>
+    <col min="19" max="19" width="5.14285714285714" customWidth="1"/>
+    <col min="20" max="20" width="9" customWidth="1"/>
+    <col min="21" max="21" width="8.57142857142857" customWidth="1"/>
+    <col min="22" max="22" width="6.85714285714286" customWidth="1"/>
+    <col min="23" max="23" width="60.5714285714286" customWidth="1"/>
+    <col min="24" max="24" width="6.85714285714286" customWidth="1"/>
+    <col min="25" max="25" width="8.57142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1" spans="2:24">
+    <row r="1" ht="16.5" customHeight="1" spans="2:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1169,23 +1172,26 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Hanbell-RPT/web/rpt/库存异动单模板.xlsx
+++ b/Hanbell-RPT/web/rpt/库存异动单模板.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+  <si>
+    <t>序号</t>
+  </si>
   <si>
     <t>交易日期</t>
   </si>
@@ -42,9 +45,6 @@
     <t>交易单号</t>
   </si>
   <si>
-    <t>序号</t>
-  </si>
-  <si>
     <t>件号</t>
   </si>
   <si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>原因内容</t>
+  </si>
+  <si>
+    <t>申报项目编号</t>
+  </si>
+  <si>
+    <t>申报项目</t>
   </si>
 </sst>
 </file>
@@ -115,13 +121,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -189,6 +188,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -252,14 +258,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,97 +280,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,85 +388,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,153 +591,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1089,10 +1098,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:Y1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1118,80 +1127,90 @@
     <col min="23" max="23" width="60.5714285714286" customWidth="1"/>
     <col min="24" max="24" width="6.85714285714286" customWidth="1"/>
     <col min="25" max="25" width="8.57142857142857" customWidth="1"/>
+    <col min="26" max="26" width="12.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1" spans="2:25">
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="16.5" customHeight="1" spans="1:27">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Hanbell-RPT/web/rpt/库存异动单模板.xlsx
+++ b/Hanbell-RPT/web/rpt/库存异动单模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>序号</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>申报项目</t>
+  </si>
+  <si>
+    <t>ARY打单部门</t>
   </si>
 </sst>
 </file>
@@ -102,9 +105,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -120,16 +123,99 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,122 +229,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,187 +283,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,17 +492,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,6 +512,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,17 +555,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,190 +589,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,6 +754,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1098,10 +1104,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AB1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1128,9 +1134,10 @@
     <col min="24" max="24" width="6.85714285714286" customWidth="1"/>
     <col min="25" max="25" width="8.57142857142857" customWidth="1"/>
     <col min="26" max="26" width="12.1428571428571" customWidth="1"/>
+    <col min="28" max="28" width="11.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1" spans="1:27">
+    <row r="1" ht="16.5" customHeight="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1211,6 +1218,9 @@
       </c>
       <c r="AA1" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Hanbell-RPT/web/rpt/库存异动单模板.xlsx
+++ b/Hanbell-RPT/web/rpt/库存异动单模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>序号</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>ARY打单部门</t>
+  </si>
+  <si>
+    <t>备注一（区域）</t>
+  </si>
+  <si>
+    <t>备注二（产品）</t>
   </si>
 </sst>
 </file>
@@ -104,10 +110,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -123,6 +129,41 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -131,36 +172,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,53 +220,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -239,6 +237,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -252,23 +258,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,127 +289,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,55 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,6 +513,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -521,21 +542,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,148 +600,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,10 +1110,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1137,7 +1143,7 @@
     <col min="28" max="28" width="11.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1" spans="1:28">
+    <row r="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1219,8 +1225,14 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Hanbell-RPT/web/rpt/库存异动单模板.xlsx
+++ b/Hanbell-RPT/web/rpt/库存异动单模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>序号</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>备注二（产品）</t>
+  </si>
+  <si>
+    <t>服务客服单号</t>
   </si>
 </sst>
 </file>
@@ -1110,10 +1113,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12"/>
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1141,9 +1144,11 @@
     <col min="25" max="25" width="8.57142857142857" customWidth="1"/>
     <col min="26" max="26" width="12.1428571428571" customWidth="1"/>
     <col min="28" max="28" width="11.8571428571429" customWidth="1"/>
+    <col min="30" max="30" width="14" customWidth="1"/>
+    <col min="31" max="31" width="12.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1" spans="1:30">
+    <row r="1" ht="16.5" customHeight="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1228,11 +1233,14 @@
       <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
